--- a/biology/Médecine/Sous-secrétaire_d'État_parlementaire_à_la_prévention,_à_la_santé_publique_et_aux_soins_primaires/Sous-secrétaire_d'État_parlementaire_à_la_prévention,_à_la_santé_publique_et_aux_soins_primaires.xlsx
+++ b/biology/Médecine/Sous-secrétaire_d'État_parlementaire_à_la_prévention,_à_la_santé_publique_et_aux_soins_primaires/Sous-secrétaire_d'État_parlementaire_à_la_prévention,_à_la_santé_publique_et_aux_soins_primaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sous-secr%C3%A9taire_d%27%C3%89tat_parlementaire_%C3%A0_la_pr%C3%A9vention,_%C3%A0_la_sant%C3%A9_publique_et_aux_soins_primaires</t>
+          <t>Sous-secrétaire_d'État_parlementaire_à_la_prévention,_à_la_santé_publique_et_aux_soins_primaires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sous-secrétaire d'État parlementaire pour la prévention, la santé publique et aux soins primaires est un ministre junior du Département de la Santé et des Affaires sociales dans le gouvernement britannique. Le poste est actuellement occupé par Jo Churchill MP qui a pris ses fonctions le 26 juillet 2019[1].
+Le sous-secrétaire d'État parlementaire pour la prévention, la santé publique et aux soins primaires est un ministre junior du Département de la Santé et des Affaires sociales dans le gouvernement britannique. Le poste est actuellement occupé par Jo Churchill MP qui a pris ses fonctions le 26 juillet 2019.
 L'office était connu sous le nom de sous-secrétaire d'État parlementaire à la santé avant 1990.
 Le rôle a parfois été connu sous le nom de sous-secrétaire d'État parlementaire à la santé publique et ministre d'État à la santé publique.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sous-secr%C3%A9taire_d%27%C3%89tat_parlementaire_%C3%A0_la_pr%C3%A9vention,_%C3%A0_la_sant%C3%A9_publique_et_aux_soins_primaires</t>
+          <t>Sous-secrétaire_d'État_parlementaire_à_la_prévention,_à_la_santé_publique_et_aux_soins_primaires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sous-secrétaire d'État parlementaire à la santé et à la sécurité sociale travaillait au Département de la santé et de la sécurité sociale. Le futur premier ministre John Major occupait cette fonction.
 Nicola Blackwood a perdu son siège à la suite des Élections anticipées de 2017 et a été remplacé en tant que ministre par Steve Brine.
-Le ministre a été chargé de la politique de santé publique pendant la pandémie de Covid-19 au Royaume-Uni[2].
+Le ministre a été chargé de la politique de santé publique pendant la pandémie de Covid-19 au Royaume-Uni.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sous-secr%C3%A9taire_d%27%C3%89tat_parlementaire_%C3%A0_la_pr%C3%A9vention,_%C3%A0_la_sant%C3%A9_publique_et_aux_soins_primaires</t>
+          <t>Sous-secrétaire_d'État_parlementaire_à_la_prévention,_à_la_santé_publique_et_aux_soins_primaires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Responsabilités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le ministre est responsable de ce qui suit[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le ministre est responsable de ce qui suit:
 COVID-19:
 fourniture (EPI)
 protection et groupes vulnérables
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sous-secr%C3%A9taire_d%27%C3%89tat_parlementaire_%C3%A0_la_pr%C3%A9vention,_%C3%A0_la_sant%C3%A9_publique_et_aux_soins_primaires</t>
+          <t>Sous-secrétaire_d'État_parlementaire_à_la_prévention,_à_la_santé_publique_et_aux_soins_primaires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,6 +607,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
